--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,54 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>eventually = after a l**** delay or series of problems</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>19/01/21</t>
-  </si>
-  <si>
-    <t>ultimately = in the e*****</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -195,48 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -509,90 +465,120 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="2" spans="1:7">
+    <row r="2" ht="27.65" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>eventually = after a l**** delay or series of problems</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately = in the e*****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7"/>
+    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -604,7 +590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -616,7 +602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -627,7 +613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,43 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2477104A-93A0-4EE1-B680-30B79230F664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>eventually = after a l**** delay or series of problems</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>ultimately = in the e*****</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>division = splitting into e***** parts</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,45 +204,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -458,124 +517,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="10" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>eventually = after a l**** delay or series of problems</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>19/01/21</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11">
+        <v>210119</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately = in the e*****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>19/01/21</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11">
+        <v>210119</v>
       </c>
     </row>
-    <row r="4"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11">
+        <v>210218</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -614,6 +658,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,93 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2477104A-93A0-4EE1-B680-30B79230F664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>eventually = after a l**** delay or series of problems</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>ultimately = in the e*****</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>division = splitting into e***** parts</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -204,54 +152,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -517,109 +456,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>eventually = after a l**** delay or series of problems</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="11" t="n">
+        <v>210119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately = in the e*****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="11" t="n">
+        <v>210119</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>division = splitting into e***** parts</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>210218</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11">
-        <v>210119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11">
-        <v>210119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="11">
-        <v>210218</v>
-      </c>
-    </row>
+    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -658,6 +634,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,48 +149,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,22 +531,22 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C5" pane="bottomLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -515,9 +583,9 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -544,7 +612,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -571,7 +639,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -598,7 +666,7 @@
     <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -622,7 +690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -633,7 +701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,116 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -531,22 +463,22 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C5" pane="bottomLeft" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -583,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -666,7 +598,7 @@
     <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -678,7 +610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -690,7 +622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -701,7 +633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,48 +149,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,24 +529,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C5" pane="bottomLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -515,7 +583,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -595,10 +663,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -622,7 +689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -633,7 +700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -663,6 +663,7 @@
         <v>210218</v>
       </c>
     </row>
+    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,48 +149,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,22 +531,22 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C5" pane="bottomLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -515,7 +583,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -598,7 +666,7 @@
     <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -622,7 +690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -633,7 +701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,116 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -529,24 +461,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C5" pane="bottomLeft" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -583,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -663,9 +595,10 @@
         <v>210218</v>
       </c>
     </row>
+    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -677,7 +610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -689,7 +622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -700,7 +633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -191,6 +191,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -191,74 +191,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,53 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>eventually = after a l**** delay or series of problems</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>ultimately = in the e*****</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>division = splitting into e***** parts</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,48 +196,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -463,142 +510,110 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C5" pane="bottomLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>eventually = after a l**** delay or series of problems</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>191</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately = in the e*****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>192</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>division = splitting into e***** parts</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>equal</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5"/>
+    <row r="5" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -622,7 +637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -633,7 +648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,53 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>eventually = after a l**** delay or series of problems</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>ultimately = in the e*****</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>division = splitting into e***** parts</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -196,48 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -510,110 +463,142 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C5" pane="bottomLeft" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>eventually = after a l**** delay or series of problems</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="3" t="n">
         <v>191</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately = in the e*****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="3" t="n">
         <v>192</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>division = splitting into e***** parts</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
       </c>
       <c r="G4" s="11" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5" spans="1:7"/>
+    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -625,7 +610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -637,7 +622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -648,7 +633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,41 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E67E0D-3544-4999-BF6C-89A00B1DDACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>eventually = after a l**** delay or series of problems</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>division = splitting into e***** parts</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>ultimately = in the *****</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,45 +204,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -456,146 +517,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>190</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>eventually = after a l**** delay or series of problems</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="n">
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11">
         <v>210119</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>191</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately = in the e*****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="n">
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11">
         <v>210119</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>192</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>division = splitting into e***** parts</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>equal</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="n">
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11">
         <v>210218</v>
       </c>
     </row>
-    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -634,6 +658,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,93 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E67E0D-3544-4999-BF6C-89A00B1DDACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>eventually = after a l**** delay or series of problems</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>division = splitting into e***** parts</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>ultimately = in the *****</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -204,54 +152,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -517,109 +456,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" s="3" t="n">
+        <v>190</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>eventually = after a l**** delay or series of problems</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="11" t="n">
+        <v>210119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>190</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>191</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11">
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately = in the *****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>191</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>192</v>
+      </c>
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11">
-        <v>210119</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>division = splitting into e***** parts</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>210218</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>192</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11">
-        <v>210218</v>
-      </c>
-    </row>
+    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -658,6 +634,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,48 +149,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,22 +531,22 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -515,7 +583,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -598,7 +666,7 @@
     <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -622,7 +690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -633,7 +701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,116 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -531,22 +463,22 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -583,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -666,7 +598,7 @@
     <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -678,7 +610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -690,7 +622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -701,7 +633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,48 +149,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,24 +529,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -515,7 +583,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -595,10 +663,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -622,7 +689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -633,7 +700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,116 +149,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -529,24 +461,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -583,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -663,9 +595,10 @@
         <v>210218</v>
       </c>
     </row>
+    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -677,7 +610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -689,7 +622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -700,7 +633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,48 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="13">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -515,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -595,10 +666,37 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>to ***** = to give support and confidence</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -610,7 +708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -622,7 +720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -633,7 +731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
@@ -694,9 +626,10 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -708,7 +641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -720,7 +653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -731,7 +664,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,11 +532,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -626,7 +694,90 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>p***** = a thing that can happen</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>possibility</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that ***** happen</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that can *****</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>happen</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,41 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C845D99-1E90-4FFD-AAE4-CB166FD6FEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>eventually = after a l**** delay or series of problems</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>ultimately = in the *****</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>division = splitting into e***** parts</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>to ***** = to give support and confidence</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>200817</t>
+  </si>
+  <si>
+    <t>p***** = a thing that can happen</t>
+  </si>
+  <si>
+    <t>possibility</t>
+  </si>
+  <si>
+    <t>200822</t>
+  </si>
+  <si>
+    <t>possibility = a thing that ***** happen</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>happen</t>
+  </si>
+  <si>
+    <t>possibility = a thing that can h*****</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,116 +234,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -527,255 +550,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>190</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>eventually = after a l**** delay or series of problems</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="n">
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11">
         <v>210119</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>191</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately = in the *****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="n">
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11">
         <v>210119</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>192</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>division = splitting into e***** parts</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>equal</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="n">
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11">
         <v>210218</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1043</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>to ***** = to give support and confidence</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1154</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>p***** = a thing that can happen</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>possibility</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1155</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>possibility = a thing that ***** happen</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1156</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>possibility = a thing that can *****</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>happen</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -816,6 +771,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,123 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C845D99-1E90-4FFD-AAE4-CB166FD6FEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>eventually = after a l**** delay or series of problems</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>ultimately = in the *****</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>division = splitting into e***** parts</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>to ***** = to give support and confidence</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>p***** = a thing that can happen</t>
-  </si>
-  <si>
-    <t>possibility</t>
-  </si>
-  <si>
-    <t>200822</t>
-  </si>
-  <si>
-    <t>possibility = a thing that ***** happen</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>happen</t>
-  </si>
-  <si>
-    <t>possibility = a thing that can h*****</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -234,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -550,189 +459,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" s="3" t="n">
+        <v>190</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>eventually = after a l**** delay or series of problems</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="11" t="n">
+        <v>210119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>190</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>191</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11">
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately = in the *****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>191</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>192</v>
+      </c>
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11">
-        <v>210119</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>division = splitting into e***** parts</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>210218</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>192</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="11">
-        <v>210218</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>to ***** = to give support and confidence</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1043</v>
-      </c>
-      <c r="B5">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>p***** = a thing that can happen</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>possibility</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1154</v>
-      </c>
-      <c r="B6">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that ***** happen</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1155</v>
-      </c>
-      <c r="B7">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that can h*****</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>happen</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1156</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -771,6 +749,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,83 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>eventually = after a l**** delay or series of problems</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>ultimately = in the *****</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>division = splitting into e***** parts</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>to ***** = to give support and confidence</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>200817</t>
+  </si>
+  <si>
+    <t>p***** = a thing that can happen</t>
+  </si>
+  <si>
+    <t>possibility</t>
+  </si>
+  <si>
+    <t>200822</t>
+  </si>
+  <si>
+    <t>possibility = a thing that ***** happen</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>possibility = a thing that can h*****</t>
+  </si>
+  <si>
+    <t>happen</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +226,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,254 +543,190 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>eventually = after a l**** delay or series of problems</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>191</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately = in the *****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>192</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>division = splitting into e***** parts</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>equal</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>1043</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>to ***** = to give support and confidence</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>1154</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>p***** = a thing that can happen</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>possibility</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>1155</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>possibility = a thing that ***** happen</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>1156</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>possibility = a thing that can h*****</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>happen</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -737,7 +750,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -748,7 +761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,83 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>eventually = after a l**** delay or series of problems</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>ultimately = in the *****</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>division = splitting into e***** parts</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>to ***** = to give support and confidence</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>p***** = a thing that can happen</t>
-  </si>
-  <si>
-    <t>possibility</t>
-  </si>
-  <si>
-    <t>200822</t>
-  </si>
-  <si>
-    <t>possibility = a thing that ***** happen</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>possibility = a thing that can h*****</t>
-  </si>
-  <si>
-    <t>happen</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -226,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -543,190 +466,254 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>eventually = after a l**** delay or series of problems</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="3" t="n">
         <v>191</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately = in the *****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="3" t="n">
         <v>192</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>division = splitting into e***** parts</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
       </c>
       <c r="G4" s="11" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" t="n">
         <v>1043</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>to ***** = to give support and confidence</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6" t="n">
         <v>1154</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>p*****ty = a thing that can happen</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>possibility</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="n">
         <v>1155</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that ***** happen</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="A8" t="n">
         <v>1156</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that can h*****</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>happen</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:7"/>
+    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -738,7 +725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -750,7 +737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -761,7 +748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -778,7 +710,63 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9" ht="27.6" customHeight="1">
+      <c r="A9" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
+      <c r="A10" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>to explore = to travel in an unfamiliar area in ***** to learn about it</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -464,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -766,7 +766,91 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>c***** = acting in the same way over time</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>consistent</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>consistent = acting in the ***** way over time</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>same</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
+      <c r="A13" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>consistent = acting in the same way over *****</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -850,7 +918,6 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -918,6 +850,7 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,41 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0268E5EA-3116-4DB4-9102-54CB39A14E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>eventually = after a l**** delay or series of problems</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>ultimately = in the *****</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>division = splitting into e***** parts</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>to ***** = to give support and confidence</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>200817</t>
+  </si>
+  <si>
+    <t>p*****ty = a thing that can happen</t>
+  </si>
+  <si>
+    <t>possibility</t>
+  </si>
+  <si>
+    <t>200822</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>possibility = a thing that can h*****</t>
+  </si>
+  <si>
+    <t>happen</t>
+  </si>
+  <si>
+    <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>200913</t>
+  </si>
+  <si>
+    <t>to explore = to travel in an unfamiliar area in ***** to learn about it</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>c***** = acting in the same way over time</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>200914</t>
+  </si>
+  <si>
+    <t>consistent = acting in the ***** way over time</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>consistent = acting in the same way over *****</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>possibility = a thing that c***** happen</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,48 +270,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,398 +586,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>190</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>eventually = after a l**** delay or series of problems</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="n">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11">
         <v>210119</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>191</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately = in the *****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="n">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11">
         <v>210119</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>192</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>division = splitting into e***** parts</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>equal</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="n">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11">
         <v>210218</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1043</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>to ***** = to give support and confidence</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1154</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>p*****ty = a thing that can happen</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>possibility</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1155</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>possibility = a thing that ***** happen</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1156</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>possibility = a thing that can h*****</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>happen</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1216</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>explore</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200913</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
-      <c r="A10" t="n">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1217</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>to explore = to travel in an unfamiliar area in ***** to learn about it</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200913</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1230</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>c***** = acting in the same way over time</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>consistent</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200914</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1231</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>consistent = acting in the ***** way over time</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>same</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200914</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
-      <c r="A13" t="n">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1232</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>consistent = acting in the same way over *****</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200914</t>
-        </is>
-      </c>
-    </row>
-    <row r="14"/>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -889,6 +907,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -1,159 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0268E5EA-3116-4DB4-9102-54CB39A14E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>eventually = after a l**** delay or series of problems</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>ultimately = in the *****</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>division = splitting into e***** parts</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>to ***** = to give support and confidence</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>p*****ty = a thing that can happen</t>
-  </si>
-  <si>
-    <t>possibility</t>
-  </si>
-  <si>
-    <t>200822</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>possibility = a thing that can h*****</t>
-  </si>
-  <si>
-    <t>happen</t>
-  </si>
-  <si>
-    <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
-  </si>
-  <si>
-    <t>explore</t>
-  </si>
-  <si>
-    <t>200913</t>
-  </si>
-  <si>
-    <t>to explore = to travel in an unfamiliar area in ***** to learn about it</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>c***** = acting in the same way over time</t>
-  </si>
-  <si>
-    <t>consistent</t>
-  </si>
-  <si>
-    <t>200914</t>
-  </si>
-  <si>
-    <t>consistent = acting in the ***** way over time</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>consistent = acting in the same way over *****</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>possibility = a thing that c***** happen</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -270,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -586,289 +459,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>eventually = after a l**** delay or series of problems</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>191</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately = in the *****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>192</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>division = splitting into e***** parts</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>1043</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>to ***** = to give support and confidence</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>1154</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>p*****ty = a thing that can happen</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>possibility</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>1155</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that c***** happen</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>1156</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that can h*****</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>happen</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
+      <c r="A9" t="n">
         <v>1216</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
+      <c r="A10" t="n">
         <v>1217</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>to explore = to travel in an unfamiliar area in ***** to learn about it</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>1230</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>c***** = acting in the same way over time</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>consistent</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>1231</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>consistent = acting in the ***** way over time</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>same</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
+      <c r="A13" t="n">
         <v>1232</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>consistent = acting in the same way over *****</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -907,6 +889,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5760" yWindow="3396"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,119 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>eventually = after a l**** delay or series of problems</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>ultimately = in the *****</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>division = splitting into e***** parts</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>to ***** = to give support and confidence</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>200817</t>
+  </si>
+  <si>
+    <t>p*****ty = a thing that can happen</t>
+  </si>
+  <si>
+    <t>possibility</t>
+  </si>
+  <si>
+    <t>200822</t>
+  </si>
+  <si>
+    <t>possibility = a thing that c***** happen</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>possibility = a thing that can h*****</t>
+  </si>
+  <si>
+    <t>happen</t>
+  </si>
+  <si>
+    <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>200913</t>
+  </si>
+  <si>
+    <t>to explore = to travel in an unfamiliar area in ***** to learn about it</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>c***** = acting in the same way over time</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>200914</t>
+  </si>
+  <si>
+    <t>consistent = acting in the ***** way over time</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>consistent = acting in the same way over *****</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +262,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,394 +579,290 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>eventually = after a l**** delay or series of problems</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>191</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately = in the *****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>192</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>division = splitting into e***** parts</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>equal</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>1043</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>to ***** = to give support and confidence</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>1154</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>p*****ty = a thing that can happen</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>possibility</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>1155</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>possibility = a thing that c***** happen</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>1156</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>possibility = a thing that can h*****</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>happen</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200822</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>1216</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>explore</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200913</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>1217</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>to explore = to travel in an unfamiliar area in ***** to learn about it</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200913</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="n">
         <v>1230</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>c***** = acting in the same way over time</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>consistent</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200914</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="n">
         <v>1231</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>consistent = acting in the ***** way over time</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>same</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200914</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>1232</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>consistent = acting in the same way over *****</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200914</t>
-        </is>
-      </c>
-    </row>
-    <row r="14"/>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -865,7 +874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -877,7 +886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -888,7 +897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5760" yWindow="3396"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,119 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>eventually = after a l**** delay or series of problems</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>ultimately = in the *****</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>division = splitting into e***** parts</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>to ***** = to give support and confidence</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>p*****ty = a thing that can happen</t>
-  </si>
-  <si>
-    <t>possibility</t>
-  </si>
-  <si>
-    <t>200822</t>
-  </si>
-  <si>
-    <t>possibility = a thing that c***** happen</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>possibility = a thing that can h*****</t>
-  </si>
-  <si>
-    <t>happen</t>
-  </si>
-  <si>
-    <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
-  </si>
-  <si>
-    <t>explore</t>
-  </si>
-  <si>
-    <t>200913</t>
-  </si>
-  <si>
-    <t>to explore = to travel in an unfamiliar area in ***** to learn about it</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>c***** = acting in the same way over time</t>
-  </si>
-  <si>
-    <t>consistent</t>
-  </si>
-  <si>
-    <t>200914</t>
-  </si>
-  <si>
-    <t>consistent = acting in the ***** way over time</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>consistent = acting in the same way over *****</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -262,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -579,290 +466,394 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>190</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>eventually = after a l**** delay or series of problems</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="3" t="n">
         <v>191</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately = in the *****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="11" t="n">
         <v>210119</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="3" t="n">
         <v>192</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>division = splitting into e***** parts</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
       </c>
       <c r="G4" s="11" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" t="n">
         <v>1043</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>to ***** = to give support and confidence</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
         <v>1154</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>p*****ty = a thing that can happen</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>possibility</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
         <v>1155</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that c***** happen</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
         <v>1156</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>possibility = a thing that can h*****</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>happen</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>1216</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>1217</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>to explore = to travel in an unfamiliar area in ***** to learn about it</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
         <v>1230</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>c***** = acting in the same way over time</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>consistent</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="n">
         <v>1231</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>consistent = acting in the ***** way over time</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>same</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>1232</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>consistent = acting in the same way over *****</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -874,7 +865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -886,7 +877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -897,7 +888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -559,7 +627,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>ultimately = in the *****</t>
+          <t>ultimately = in the ***</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -586,7 +654,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>division = splitting into e***** parts</t>
+          <t>division = splitting into e**** parts</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
@@ -612,7 +680,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>to ***** = to give support and confidence</t>
+          <t>to ***************** = to give support and confidence</t>
         </is>
       </c>
       <c r="E5" s="12" t="inlineStr">
@@ -640,7 +708,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>p*****ty = a thing that can happen</t>
+          <t>p************ty = a thing that can happen</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -668,7 +736,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>possibility = a thing that c***** happen</t>
+          <t>possibility = a thing that c** happen</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -724,7 +792,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>to ***** = to travel in an unfamiliar area in order to learn about it</t>
+          <t>t************** = to travel in an unfamiliar area in order to learn about it</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -780,7 +848,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>c***** = acting in the same way over time</t>
+          <t>c***************** = acting in the same way over time</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -808,7 +876,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>consistent = acting in the ***** way over time</t>
+          <t>consistent = acting in the **** way over time</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -836,7 +904,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>consistent = acting in the same way over *****</t>
+          <t>consistent = acting in the same way over ****</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">

--- a/Questions/English/Definitions 2000.xlsx
+++ b/Questions/English/Definitions 2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -536,7 +468,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -680,7 +612,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>to ***************** = to give support and confidence</t>
+          <t>to ***** = to give support and confidence</t>
         </is>
       </c>
       <c r="E5" s="12" t="inlineStr">
@@ -708,7 +640,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>p************ty = a thing that can happen</t>
+          <t>p*****ty = a thing that can happen</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -792,12 +724,12 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>t************** = to travel in an unfamiliar area in order to learn about it</t>
+          <t>** e***** = to travel in an unfamiliar area in order to learn about it</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>explore</t>
+          <t>to explore</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -848,7 +780,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>c***************** = acting in the same way over time</t>
+          <t>c***** = acting in the same way over time</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
